--- a/biology/Botanique/Zygophyllaceae/Zygophyllaceae.xlsx
+++ b/biology/Botanique/Zygophyllaceae/Zygophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Zygophyllacées regroupe des plantes dicotylédones ; elle comprend 235 espèces réparties en une trentaine de genres.
 Ce sont des arbres, des arbustes ou des plantes herbacées des régions tempérées à tropicales, largement répandues dans les régions tropicales, souvent dans les zones arides.
 Le genre Guaiacum fournit le gaïac, un bois très dur et dense.
-En classification phylogénétique APG II (2003)[1], les Zygophyllacées sont maintenant directement rattachées aux Fabidées. Aussi, il faut rajouter le genre Balanites (et quelques autres provenant de la famille des Balanitacées). Le genre Krameria peut être inclus dans les Zygophyllacées ou, optionnellement, peut être élevé à la famille des Krameriacées.
-Le Angiosperm Phylogeny Website [3 oct 2006] accepte 285 espèces réparties en 26 genres. Il place cette famille dans l'ordre Zygophyllales, choix confirmé par classification phylogénétique APG III (2009)[2].
+En classification phylogénétique APG II (2003), les Zygophyllacées sont maintenant directement rattachées aux Fabidées. Aussi, il faut rajouter le genre Balanites (et quelques autres provenant de la famille des Balanitacées). Le genre Krameria peut être inclus dans les Zygophyllacées ou, optionnellement, peut être élevé à la famille des Krameriacées.
+Le Angiosperm Phylogeny Website [3 oct 2006] accepte 285 espèces réparties en 26 genres. Il place cette famille dans l'ordre Zygophyllales, choix confirmé par classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom a été créé en 1814 par le botaniste écossais Robert Brown à partir du nom de genre Zygophyllum, lui-même composé à partir de zygo- (joindre, unir) et -phylle (feuille) à cause du caractère symétrique des folioles de ces plantes.
 </t>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 mai 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 mai 2010) :
 sous-famille Larreoideae
 genre Bulnesia
 genre Guaiacum
@@ -576,7 +592,7 @@
 genre Melocarpum
 genre Tetraena
 genre Zygophyllum
-Selon DELTA Angio           (4 mai 2010)[4] :
+Selon DELTA Angio           (4 mai 2010) :
 genre Augea
 genre Bulnesia
 genre Fagonia
@@ -605,7 +621,7 @@
 genre Tribulus
 genre Viscainoa
 genre Zygophyllum
-Selon ITIS      (4 mai 2010)[5] :
+Selon ITIS      (4 mai 2010) :
 genre Balanites  Del.
 genre Bulnesia  C. Gay
 genre Fagonia  L.
